--- a/Plots/MohitPlots/human_blood_01_CM.xlsx
+++ b/Plots/MohitPlots/human_blood_01_CM.xlsx
@@ -831,10 +831,10 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="I1" t="s">
         <v>7</v>
@@ -1162,10 +1162,10 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="I1" t="s">
         <v>7</v>
